--- a/similarities/split_global/harmonic_similarity_timestamps_257.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_257.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min7', 'C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj', 'D:7/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:22.680000', '0:00:27')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:06.800000', '0:01:16.740000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=66.8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_173</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A', 'G', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Bb/3', 'Ab/5', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:12.004648', '0:00:17.670317')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:03:26.313000', '0:03:27.541000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=12.004648</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=206.313</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5'], ['G:7', 'C:min', 'F:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000'), ('0:02:36.152000', '0:02:39.022000')]</t>
+          <t>('0:00:44.300045', '0:00:57.976598')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.560000', '0:00:19.180000'), ('0:00:06.940000', '0:00:17.120000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=156.152']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=44.300045</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:19.400000', '0:00:44.180000')]</t>
+          <t>('0:00:07.620000', '0:00:11.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:18.240000')]</t>
+          <t>('0:01:37.880000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_97</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:7/F', 'D#']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:45.800000', '0:00:48.480000')]</t>
+          <t>('0:01:10.380000', '0:01:30.980000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.330793', '0:00:22.635827')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=45.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-97#t=9.330793']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:14.480000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+          <t>('0:03:46.020000', '0:04:01.060000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:00:18.300000', '0:00:21.940000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=226.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:7', 'G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:7', 'F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:17.150000', '0:00:25.320000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:41.170000', '0:00:48.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=17.15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=41.17</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['G#:7', 'C#:maj', 'C#:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:08.480000'), ('0:00:25.900000', '0:00:35.060000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:04.920000', '0:01:07.900000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=25.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.92']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.400000', '0:00:16.280000')]</t>
+          <t>('0:00:34.940000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:23.600000', '0:00:40.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=10.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'D:7', 'G:7', 'D']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab:7', 'Eb']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.230000', '0:00:08.780000')]</t>
+          <t>('0:00:36.320000', '0:00:51.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.920000', '0:00:29.740000')]</t>
+          <t>('0:00:15.260000', '0:00:45.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=0.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=7.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.054444', '0:00:21.740249')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=14.054444']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:15.730000', '0:00:17.850000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
